--- a/puzzles/puzzle_ideas/Puzzle 2 diary.xlsx
+++ b/puzzles/puzzle_ideas/Puzzle 2 diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/59e063627e4c4ff1/Desktop/Napier/Year 3 Sem 2/Group Project/puzzle ideas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB678BB-60E4-4D47-9437-C84728250492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{BBB678BB-60E4-4D47-9437-C84728250492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C09F9D22-CE45-4BFF-B406-E4F20BBFF68E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03EEC1F5-52A3-405D-8D02-DFB18697A5AA}"/>
   </bookViews>
@@ -74,12 +74,6 @@
     <t>Ivanheidel</t>
   </si>
   <si>
-    <t>Distance Travelled (miles)</t>
-  </si>
-  <si>
-    <t>Time Duration (hours)</t>
-  </si>
-  <si>
     <t>Mild</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>Very Windy</t>
+  </si>
+  <si>
+    <t>Time Duration (hrs)</t>
+  </si>
+  <si>
+    <t>Distance Travelled (kms)</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,20 +478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0969F8F6-7480-4E34-B260-2E00FCEE265C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -498,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -527,7 +531,7 @@
         <v>45332</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -547,7 +551,7 @@
         <v>45334</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -567,7 +571,7 @@
         <v>45341</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -587,7 +591,7 @@
         <v>45350</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -607,7 +611,7 @@
         <v>45353</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -627,7 +631,7 @@
         <v>45361</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -647,7 +651,7 @@
         <v>45362</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,7 +671,7 @@
         <v>45365</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -687,7 +691,7 @@
         <v>45367</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -707,7 +711,7 @@
         <v>45381</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -727,7 +731,7 @@
         <v>45390</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -747,7 +751,13 @@
         <v>45392</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <f>SUM(C3:C14)</f>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
